--- a/biology/Botanique/Goodeniaceae/Goodeniaceae.xlsx
+++ b/biology/Botanique/Goodeniaceae/Goodeniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Goodeniaceae (Goodéniacées) regroupe des plantes dicotylédones ; elle comprend environ 400 espèces réparties en 11 à 12 genres.
 Ce sont des plantes herbacées, des arbustes ou quelques arbres, annuels ou pérennes, parfois à fonction photosynthétique assurée par les tiges, des régions tempérées de l'hémisphère sud aux régions tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Goodenia, donné en l'honneur de l'ecclésiastique et botaniste anglais Samuel Goodenough (1743-1827), qui fut évêque de Carlisle (Comté de Cumbria, au nord-ouest de l'Angleterre).
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique rajoute à cette famille les Brunoniacées avec le genre Brunonia (en).
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[1] et NCBI  (12 nov. 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Anthotium (en) R.Br.
 Brunonia Sm.
 Coopernookia (en) Carolin
@@ -589,7 +607,7 @@
 Selliera (en) Cav.
 Velleia (en) Sm.
 Verreauxia (en) Benth.
-Selon DELTA Angio           (12 nov. 2015)[3] :
+Selon DELTA Angio           (12 nov. 2015) :
 Anthotium
 Coopernookia
 Dampiera
@@ -601,7 +619,7 @@
 Selliera
 Velleia
 Verreauxia
-Selon ITIS      (12 nov. 2015)[4] :
+Selon ITIS      (12 nov. 2015) :
 Brunonia Sm.
 Scaevola L.</t>
         </is>
@@ -631,9 +649,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Anthotium
 Anthotium rubriflorum
 genre Brunonia
